--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>785757.5123904041</v>
+        <v>865960.2355424383</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198.1396276091177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>284.3745093716133</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518629</v>
       </c>
       <c r="H3" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>188.7221730505803</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.644366040938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>193.1994278308467</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>258.2471978122847</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>93.00230038800741</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>140.4936753354119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>305.0126164572716</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>146.8721604471133</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1306,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>66.40055121331426</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>57.92556443677197</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>129.3290918536836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.0955237083912</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>85.17289288835035</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471482</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>85.17289288835035</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>261.2824032917163</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>114.265617377101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>377.7449946201788</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>57.92518451681089</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>34.987230763697</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1675620474802</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>168.1158122680962</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>29.00134239365487</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.3740563273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>58.92805047992029</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>149.5553587855457</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X28" t="n">
-        <v>111.9187566128688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>166.9904644002005</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>44.43736064133194</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>136.9968647819695</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6364325960777</v>
       </c>
       <c r="F32" t="n">
-        <v>308.9203564757131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.31354443380417</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.52979344581594</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>228.1910895014586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>135.7341931089238</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>15.32691334752876</v>
+        <v>13.02719212039586</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>199.7325946875376</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>69.17447067454248</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.487334137518163</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>235.9375844494541</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3797,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>106.1181175773727</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>23.15159618305923</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>15.63807347850683</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>385.6774429869475</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>173.5578851713661</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.96546591245722</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>1118.442187461268</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395621</v>
+        <v>749.4796705208564</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>749.4796705208564</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>749.4796705208564</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>338.4937657312489</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>338.4937657312489</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.304141096638</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.851111815511</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542597</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488042</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756892</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694942</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296772</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.633520129069</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815394</v>
       </c>
       <c r="W3" t="n">
         <v>1515.131277087193</v>
@@ -4452,7 +4454,7 @@
         <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116706</v>
       </c>
     </row>
     <row r="4">
@@ -4483,52 +4485,52 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y4" t="n">
         <v>1122.4416768197</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1467.14239792855</v>
       </c>
       <c r="D5" t="n">
-        <v>1043.17188115873</v>
+        <v>1108.876699321799</v>
       </c>
       <c r="E5" t="n">
-        <v>657.3836285604862</v>
+        <v>723.0884467235549</v>
       </c>
       <c r="F5" t="n">
-        <v>246.3977237708786</v>
+        <v>312.1025419339473</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>312.1025419339473</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4604,13 +4606,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,10 +4637,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4656,13 +4658,13 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4683,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598622</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9138669598622</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>461.9138669598622</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>461.9138669598622</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>461.9138669598622</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>293.9274022681408</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>145.188504131647</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901019</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.9761533554615</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>265.9761533554615</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>265.9761533554615</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E8" t="n">
-        <v>265.9761533554615</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F8" t="n">
-        <v>265.9761533554615</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G8" t="n">
-        <v>265.9761533554615</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>652.5759934195833</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5002,10 +5004,10 @@
         <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>494.297267790959</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5111,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590.8070661251681</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621287</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251681</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>590.8070661251681</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.8070661251681</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796247</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939213</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324625</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228021</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
         <v>1212.42807043813</v>
@@ -5373,34 +5375,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5431,46 +5433,46 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796247</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C17" t="n">
-        <v>552.807938939213</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324625</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450752</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919558</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943746</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,46 +5679,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.46409084602</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.46409084602</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.46409084602</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>806.3384156653772</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="E20" t="n">
         <v>66.5121164321834</v>
@@ -5777,25 +5779,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3267.095534218452</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3013.565057492288</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>1927.329267658445</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.501411349798</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.51186045178</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308157</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367745</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760994</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.38442316275</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>236.3260682181391</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5990,10 +5992,10 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6005,7 +6007,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6026,13 +6028,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.60582160917</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.14006334809</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.000731372279</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G25" t="n">
         <v>212.7293032143256</v>
@@ -6172,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1706.314378669203</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1451.629890463316</v>
       </c>
       <c r="W25" t="n">
-        <v>1416.425065783662</v>
+        <v>1162.212720426355</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.435514885645</v>
+        <v>934.2231695283381</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>713.4305903848079</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6236,40 +6238,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.791869823214</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1876.069090541939</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C28" t="n">
-        <v>1876.069090541939</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>1876.069090541939</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>1876.069090541939</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>2533.219997888694</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>2278.535509682807</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W28" t="n">
-        <v>1989.118339645846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X28" t="n">
-        <v>1876.069090541939</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y28" t="n">
-        <v>1876.069090541939</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1698.509627919559</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.547110979147</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D29" t="n">
-        <v>1160.869874211268</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E29" t="n">
-        <v>775.0816216130238</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
         <v>765.1517452158134</v>
@@ -6555,31 +6557,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>373.8289708570292</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>204.8927879291222</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6640,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.191681214136</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W31" t="n">
-        <v>1638.191681214136</v>
+        <v>1004.259565728816</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>776.270014830799</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>555.4774356872689</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694472</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.60683175406</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="D32" t="n">
-        <v>764.3411331473096</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="E32" t="n">
-        <v>378.5528805490654</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6713,37 +6715,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>943.7005868594143</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C34" t="n">
-        <v>774.7644039315074</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D34" t="n">
-        <v>624.6477645191717</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6877,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1829.789706224032</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1608.023090793558</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U34" t="n">
-        <v>1608.023090793558</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.338602587671</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1353.338602587671</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.349051689654</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y34" t="n">
-        <v>1125.349051689654</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F35" t="n">
         <v>779.1681669784198</v>
@@ -6929,25 +6931,25 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>2287.638795886184</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.14006334809</v>
+        <v>1914.173037625104</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>1524.033705649292</v>
       </c>
     </row>
     <row r="36">
@@ -7005,28 +7007,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124868</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U37" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V37" t="n">
-        <v>1600.215744761477</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.798574724517</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.809023826499</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1944.904841306683</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C38" t="n">
-        <v>1575.942324366272</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>268.2622120761608</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3255.732618907612</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3002.202142181448</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2671.139254837878</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2318.370599567763</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>1944.904841306683</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y38" t="n">
-        <v>1944.904841306683</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7359,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1519.109083729354</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.146566788942</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D41" t="n">
-        <v>791.8808681821918</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="E41" t="n">
-        <v>406.0926155839475</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2648.616911039402</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2295.848255769287</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.848255769287</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.708923793476</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.3613929424835</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>214.4252100145765</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7603,16 +7605,16 @@
         <v>1326.59460854119</v>
       </c>
       <c r="V43" t="n">
-        <v>1303.209157851231</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1013.791987814271</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>785.8024369162533</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>565.0098577727232</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.321240915451</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>841.8735437647181</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>456.0852911664738</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>3150.294826486578</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W44" t="n">
-        <v>2797.526171216464</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.060412955384</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y44" t="n">
-        <v>2033.921080979572</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.9944709118752</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C46" t="n">
-        <v>617.0582879839683</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D46" t="n">
-        <v>466.9416485716325</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E46" t="n">
-        <v>319.0285549892394</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F46" t="n">
-        <v>319.0285549892394</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G46" t="n">
-        <v>151.3257183639584</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3257183639584</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.425065783662</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W46" t="n">
-        <v>1416.425065783662</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.435514885645</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.6429357421149</v>
+        <v>2428.030554828929</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566524</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.454437538929696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>168.7434581780649</v>
       </c>
       <c r="O6" t="n">
-        <v>129.4330134067484</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>129.4330134067484</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22550,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>183.7907424631441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.64404319079205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22606,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -22768,10 +22770,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>36.98748233845686</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.940287311156823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>218.3482749421073</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>42.77135475012068</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,10 +22944,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.79429481589317</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>80.25502066180007</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>49.67042516341138</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,10 +23038,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>154.1463921152921</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,10 +23074,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>80.85095794181461</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>37.91772924494421</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>92.48912964370359</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>296.7574771839114</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944278</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>296.7574771839114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>108.4486973867527</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.25738095949</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.185375452082951</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.9927856228092</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>251.2246074419159</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>94.35543628911083</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>126.4919521192243</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>257.210495811958</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.2105970247948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>192.0671214789817</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>236.6825798705079</v>
       </c>
     </row>
     <row r="27">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X28" t="n">
-        <v>113.7908987761684</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>187.6925772204824</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>283.3148978288029</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>11.61860823624289</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>234.2939374761841</v>
       </c>
       <c r="F32" t="n">
-        <v>97.95568926599833</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>69.120418212765</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>93.23923188562595</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>126.4919521192244</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>213.5067756084892</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>236.8107299762993</v>
+        <v>239.1104512034321</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>207.1434510541739</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>134.7434994650777</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>147.1281388806942</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>170.9384612922573</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>221.6341408927622</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>228.9860471407688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>270.8849248580842</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>21.19860275476395</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25919,10 +25921,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>154.1943732987689</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>12.38695449738087</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>94.04427615813256</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>765284.2720076083</v>
+        <v>765284.2720076084</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765284.2720076086</v>
+        <v>765284.2720076083</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>843372.1640239162</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239159</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.2120190237</v>
+      </c>
+      <c r="C2" t="n">
         <v>321270.2120190239</v>
       </c>
-      <c r="C2" t="n">
-        <v>321270.2120190241</v>
-      </c>
       <c r="D2" t="n">
-        <v>321270.2120190239</v>
+        <v>321270.2120190237</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194666</v>
@@ -26326,31 +26328,31 @@
         <v>358046.9539194665</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="L2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="P2" t="n">
         <v>358046.9539194666</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>182072.979817191</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341497</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,19 +26426,19 @@
         <v>16175.59256035157</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066882</v>
+        <v>8550.515172066847</v>
       </c>
       <c r="F4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
-        <v>8550.515172066882</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="I4" t="n">
-        <v>8550.51517206684</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="J4" t="n">
         <v>8550.515172066862</v>
@@ -26476,13 +26478,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26491,25 +26493,25 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-902594.9365570922</v>
+        <v>-902594.936557092</v>
       </c>
       <c r="C6" t="n">
-        <v>212156.847018828</v>
+        <v>212156.8470188276</v>
       </c>
       <c r="D6" t="n">
-        <v>212156.8470188276</v>
+        <v>212156.8470188274</v>
       </c>
       <c r="E6" t="n">
-        <v>93117.11836881611</v>
+        <v>93117.11836881553</v>
       </c>
       <c r="F6" t="n">
-        <v>275190.0981860064</v>
+        <v>275190.0981860065</v>
       </c>
       <c r="G6" t="n">
         <v>275190.0981860064</v>
       </c>
       <c r="H6" t="n">
-        <v>275190.0981860061</v>
+        <v>275190.0981860062</v>
       </c>
       <c r="I6" t="n">
         <v>275190.0981860065</v>
       </c>
       <c r="J6" t="n">
-        <v>107584.9203760239</v>
+        <v>107584.920376024</v>
       </c>
       <c r="K6" t="n">
-        <v>275190.0981860062</v>
+        <v>275190.0981860068</v>
       </c>
       <c r="L6" t="n">
         <v>275190.0981860064</v>
       </c>
       <c r="M6" t="n">
-        <v>227637.8323925917</v>
+        <v>227637.8323925915</v>
       </c>
       <c r="N6" t="n">
+        <v>275190.0981860063</v>
+      </c>
+      <c r="O6" t="n">
         <v>275190.0981860065</v>
-      </c>
-      <c r="O6" t="n">
-        <v>275190.0981860064</v>
       </c>
       <c r="P6" t="n">
         <v>275190.0981860064</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26744,7 +26746,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26811,25 +26813,25 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31212,16 +31214,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34150,7 +34152,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563569</v>
@@ -34226,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.9351598697843</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>559.9405577709388</v>
       </c>
       <c r="O6" t="n">
-        <v>464.8576954028714</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977091</v>
@@ -35252,16 +35254,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>496.3643456887888</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,10 +35272,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37798,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37874,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
